--- a/CustomLocalization/Localization/RogueTech/RU/Base FlashPoint/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/Base FlashPoint/LocalizationDef.xlsx
@@ -286,7 +286,9 @@
     <t>c_fp_reliques_defendBase.dialogueList4.dialogueContent0.words</t>
   </si>
   <si>
-    <t xml:space="preserve">Warning commander, sensors are reading multiple contacts approaching from multiple vectors. Looks like the attacking force has brought reinforcements. </t>
+    <t xml:space="preserve">Warning commander, sensors are reading multiple contacts approaching from multiple vectors. Looks like the attacking force has brought reinforcements.
+---
+Warning commander, sensors are reading multiple contacts approaching from multiple vectors. Looks like the attacking force has brought reinforcements. </t>
   </si>
   <si>
     <t>Warning commander, sensors are reading multiple contacts approaching from multiple vectors. Looks like the attacking force has brought reinforcements.</t>
@@ -295,7 +297,9 @@
     <t>c_fp_reliques_defendBase.dialogueList5.dialogueContent0.words</t>
   </si>
   <si>
-    <t xml:space="preserve">No, No, No. These things are old and fragile, they can't be shaken like this. </t>
+    <t xml:space="preserve">No, No, No. These things are old and fragile, they can't be shaken like this.
+---
+No, No, No. These things are old and fragile, they can't be shaken like this. </t>
   </si>
   <si>
     <t>No, No, No. These things are old and fragile, they can't be shaken like this.</t>
@@ -754,7 +758,7 @@
     <t>c_fp_reliques_simpleBattle1.objectiveList1.title</t>
   </si>
   <si>
-    <t xml:space="preserve">Destroy the Second  Pirate</t>
+    <t>Destroy the Second Pirate</t>
   </si>
   <si>
     <t>Уничтожьте второго пирата</t>
@@ -792,12 +796,17 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000" tint="0"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -816,7 +825,7 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1113,14 +1122,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="2"/>
-    <col min="2" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="1" max="2" width="9.140625" customWidth="1" style="2"/>
+    <col min="3" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1563,25 +1572,25 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="2" t="s">
+    <row r="41" s="3" customFormat="1">
+      <c r="A41" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="2" t="s">
+    <row r="42" s="3" customFormat="1">
+      <c r="A42" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="3" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1977,7 +1986,7 @@
       <c r="B78" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="2" t="s">
         <v>171</v>
       </c>
     </row>
@@ -1988,7 +1997,7 @@
       <c r="B79" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="2" t="s">
         <v>174</v>
       </c>
     </row>
@@ -1999,7 +2008,7 @@
       <c r="B80" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="2" t="s">
         <v>177</v>
       </c>
     </row>
@@ -2010,7 +2019,7 @@
       <c r="B81" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="2" t="s">
         <v>180</v>
       </c>
     </row>

--- a/CustomLocalization/Localization/RogueTech/RU/Base FlashPoint/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/Base FlashPoint/LocalizationDef.xlsx
@@ -286,9 +286,7 @@
     <t>c_fp_reliques_defendBase.dialogueList4.dialogueContent0.words</t>
   </si>
   <si>
-    <t xml:space="preserve">Warning commander, sensors are reading multiple contacts approaching from multiple vectors. Looks like the attacking force has brought reinforcements.
----
-Warning commander, sensors are reading multiple contacts approaching from multiple vectors. Looks like the attacking force has brought reinforcements. </t>
+    <t xml:space="preserve">Warning commander, sensors are reading multiple contacts approaching from multiple vectors. Looks like the attacking force has brought reinforcements. </t>
   </si>
   <si>
     <t>Warning commander, sensors are reading multiple contacts approaching from multiple vectors. Looks like the attacking force has brought reinforcements.</t>
@@ -297,9 +295,7 @@
     <t>c_fp_reliques_defendBase.dialogueList5.dialogueContent0.words</t>
   </si>
   <si>
-    <t xml:space="preserve">No, No, No. These things are old and fragile, they can't be shaken like this.
----
-No, No, No. These things are old and fragile, they can't be shaken like this. </t>
+    <t xml:space="preserve">No, No, No. These things are old and fragile, they can't be shaken like this. </t>
   </si>
   <si>
     <t>No, No, No. These things are old and fragile, they can't be shaken like this.</t>
@@ -758,7 +754,7 @@
     <t>c_fp_reliques_simpleBattle1.objectiveList1.title</t>
   </si>
   <si>
-    <t>Destroy the Second Pirate</t>
+    <t xml:space="preserve">Destroy the Second  Pirate</t>
   </si>
   <si>
     <t>Уничтожьте второго пирата</t>
@@ -796,17 +792,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000" tint="0"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -825,7 +816,7 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1122,14 +1113,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
       <selection sqref="A1:C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" customWidth="1" style="2"/>
-    <col min="3" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="1" max="1" width="9.140625" customWidth="1" style="2"/>
+    <col min="2" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1572,25 +1563,25 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" s="3" customFormat="1">
-      <c r="A41" s="3" t="s">
+    <row r="41">
+      <c r="A41" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="42" s="3" customFormat="1">
-      <c r="A42" s="3" t="s">
+    <row r="42">
+      <c r="A42" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1986,7 +1977,7 @@
       <c r="B78" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="3" t="s">
         <v>171</v>
       </c>
     </row>
@@ -1997,7 +1988,7 @@
       <c r="B79" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="3" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2008,7 +1999,7 @@
       <c r="B80" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="3" t="s">
         <v>177</v>
       </c>
     </row>
@@ -2019,7 +2010,7 @@
       <c r="B81" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="3" t="s">
         <v>180</v>
       </c>
     </row>

--- a/CustomLocalization/Localization/RogueTech/RU/Base FlashPoint/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/Base FlashPoint/LocalizationDef.xlsx
@@ -286,9 +286,7 @@
     <t>c_fp_reliques_defendBase.dialogueList4.dialogueContent0.words</t>
   </si>
   <si>
-    <t xml:space="preserve">Warning commander, sensors are reading multiple contacts approaching from multiple vectors. Looks like the attacking force has brought reinforcements.
----
-Warning commander, sensors are reading multiple contacts approaching from multiple vectors. Looks like the attacking force has brought reinforcements. </t>
+    <t xml:space="preserve">Warning commander, sensors are reading multiple contacts approaching from multiple vectors. Looks like the attacking force has brought reinforcements. </t>
   </si>
   <si>
     <t>Warning commander, sensors are reading multiple contacts approaching from multiple vectors. Looks like the attacking force has brought reinforcements.</t>
@@ -297,9 +295,7 @@
     <t>c_fp_reliques_defendBase.dialogueList5.dialogueContent0.words</t>
   </si>
   <si>
-    <t xml:space="preserve">No, No, No. These things are old and fragile, they can't be shaken like this.
----
-No, No, No. These things are old and fragile, they can't be shaken like this. </t>
+    <t xml:space="preserve">No, No, No. These things are old and fragile, they can't be shaken like this. </t>
   </si>
   <si>
     <t>No, No, No. These things are old and fragile, they can't be shaken like this.</t>
@@ -758,7 +754,7 @@
     <t>c_fp_reliques_simpleBattle1.objectiveList1.title</t>
   </si>
   <si>
-    <t>Destroy the Second Pirate</t>
+    <t xml:space="preserve">Destroy the Second  Pirate</t>
   </si>
   <si>
     <t>Уничтожьте второго пирата</t>
@@ -796,17 +792,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000" tint="0"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -825,7 +816,7 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1120,16 +1111,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C114"/>
+  <dimension ref="A1:E114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C114"/>
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" customWidth="1" style="2"/>
-    <col min="3" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="1" max="3" width="73" customWidth="1" style="2"/>
+    <col min="4" max="4" width="9.140625" customWidth="1" style="2"/>
+    <col min="5" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1142,6 +1134,9 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="E1" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1153,6 +1148,9 @@
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -1164,6 +1162,9 @@
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -1175,6 +1176,9 @@
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E4" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -1186,6 +1190,9 @@
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -1197,6 +1204,9 @@
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E6" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -1208,6 +1218,9 @@
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="E7" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -1219,6 +1232,9 @@
       <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="E8" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -1230,6 +1246,9 @@
       <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="E9" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
@@ -1241,6 +1260,9 @@
       <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -1252,6 +1274,9 @@
       <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="E11" s="2">
+        <v>11</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -1263,6 +1288,9 @@
       <c r="C12" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="E12" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -1274,6 +1302,9 @@
       <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="E13" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -1285,6 +1316,9 @@
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="E14" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
@@ -1296,6 +1330,9 @@
       <c r="C15" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="E15" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -1307,6 +1344,9 @@
       <c r="C16" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="E16" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
@@ -1318,6 +1358,9 @@
       <c r="C17" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="E17" s="2">
+        <v>17</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
@@ -1329,6 +1372,9 @@
       <c r="C18" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="E18" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
@@ -1340,6 +1386,9 @@
       <c r="C19" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="E19" s="2">
+        <v>19</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -1351,6 +1400,9 @@
       <c r="C20" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="E20" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
@@ -1362,6 +1414,9 @@
       <c r="C21" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="E21" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
@@ -1373,6 +1428,9 @@
       <c r="C22" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="E22" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
@@ -1384,6 +1442,9 @@
       <c r="C23" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="E23" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
@@ -1395,6 +1456,9 @@
       <c r="C24" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="E24" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
@@ -1406,6 +1470,9 @@
       <c r="C25" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="E25" s="2">
+        <v>25</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
@@ -1417,6 +1484,9 @@
       <c r="C26" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="E26" s="2">
+        <v>26</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
@@ -1428,6 +1498,9 @@
       <c r="C27" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="E27" s="2">
+        <v>27</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
@@ -1439,6 +1512,9 @@
       <c r="C28" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="E28" s="2">
+        <v>28</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
@@ -1450,6 +1526,9 @@
       <c r="C29" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="E29" s="2">
+        <v>29</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
@@ -1461,6 +1540,9 @@
       <c r="C30" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="E30" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
@@ -1472,6 +1554,9 @@
       <c r="C31" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="E31" s="2">
+        <v>31</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
@@ -1483,6 +1568,9 @@
       <c r="C32" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="E32" s="2">
+        <v>32</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
@@ -1494,6 +1582,9 @@
       <c r="C33" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="E33" s="2">
+        <v>33</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
@@ -1505,6 +1596,9 @@
       <c r="C34" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="E34" s="2">
+        <v>34</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
@@ -1516,6 +1610,9 @@
       <c r="C35" s="2" t="s">
         <v>78</v>
       </c>
+      <c r="E35" s="2">
+        <v>35</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
@@ -1527,6 +1624,9 @@
       <c r="C36" s="2" t="s">
         <v>80</v>
       </c>
+      <c r="E36" s="2">
+        <v>36</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
@@ -1538,6 +1638,9 @@
       <c r="C37" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="E37" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
@@ -1549,6 +1652,9 @@
       <c r="C38" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="E38" s="2">
+        <v>38</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
@@ -1560,6 +1666,9 @@
       <c r="C39" s="2" t="s">
         <v>86</v>
       </c>
+      <c r="E39" s="2">
+        <v>39</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
@@ -1571,27 +1680,36 @@
       <c r="C40" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="41" s="3" customFormat="1">
-      <c r="A41" s="3" t="s">
+      <c r="E40" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="42" s="3" customFormat="1">
-      <c r="A42" s="3" t="s">
+      <c r="E41" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>94</v>
+      </c>
+      <c r="E42" s="2">
+        <v>42</v>
       </c>
     </row>
     <row r="43">
@@ -1604,6 +1722,9 @@
       <c r="C43" s="2" t="s">
         <v>96</v>
       </c>
+      <c r="E43" s="2">
+        <v>43</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
@@ -1615,6 +1736,9 @@
       <c r="C44" s="2" t="s">
         <v>98</v>
       </c>
+      <c r="E44" s="2">
+        <v>44</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
@@ -1626,6 +1750,9 @@
       <c r="C45" s="2" t="s">
         <v>100</v>
       </c>
+      <c r="E45" s="2">
+        <v>45</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
@@ -1637,6 +1764,9 @@
       <c r="C46" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="E46" s="2">
+        <v>46</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
@@ -1648,6 +1778,9 @@
       <c r="C47" s="2" t="s">
         <v>105</v>
       </c>
+      <c r="E47" s="2">
+        <v>47</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
@@ -1659,6 +1792,9 @@
       <c r="C48" s="2" t="s">
         <v>107</v>
       </c>
+      <c r="E48" s="2">
+        <v>48</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
@@ -1670,6 +1806,9 @@
       <c r="C49" s="2" t="s">
         <v>109</v>
       </c>
+      <c r="E49" s="2">
+        <v>49</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
@@ -1681,6 +1820,9 @@
       <c r="C50" s="2" t="s">
         <v>111</v>
       </c>
+      <c r="E50" s="2">
+        <v>50</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
@@ -1692,6 +1834,9 @@
       <c r="C51" s="2" t="s">
         <v>114</v>
       </c>
+      <c r="E51" s="2">
+        <v>51</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
@@ -1703,6 +1848,9 @@
       <c r="C52" s="2" t="s">
         <v>117</v>
       </c>
+      <c r="E52" s="2">
+        <v>52</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
@@ -1714,6 +1862,9 @@
       <c r="C53" s="2" t="s">
         <v>120</v>
       </c>
+      <c r="E53" s="2">
+        <v>53</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
@@ -1725,6 +1876,9 @@
       <c r="C54" s="2" t="s">
         <v>123</v>
       </c>
+      <c r="E54" s="2">
+        <v>54</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
@@ -1736,6 +1890,9 @@
       <c r="C55" s="2" t="s">
         <v>125</v>
       </c>
+      <c r="E55" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
@@ -1747,6 +1904,9 @@
       <c r="C56" s="2" t="s">
         <v>128</v>
       </c>
+      <c r="E56" s="2">
+        <v>56</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
@@ -1758,6 +1918,9 @@
       <c r="C57" s="2" t="s">
         <v>130</v>
       </c>
+      <c r="E57" s="2">
+        <v>57</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
@@ -1769,6 +1932,9 @@
       <c r="C58" s="2" t="s">
         <v>132</v>
       </c>
+      <c r="E58" s="2">
+        <v>58</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
@@ -1780,6 +1946,9 @@
       <c r="C59" s="2" t="s">
         <v>134</v>
       </c>
+      <c r="E59" s="2">
+        <v>59</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
@@ -1791,6 +1960,9 @@
       <c r="C60" s="2" t="s">
         <v>136</v>
       </c>
+      <c r="E60" s="2">
+        <v>60</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
@@ -1802,6 +1974,9 @@
       <c r="C61" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="E61" s="2">
+        <v>61</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
@@ -1813,6 +1988,9 @@
       <c r="C62" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="E62" s="2">
+        <v>62</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
@@ -1824,6 +2002,9 @@
       <c r="C63" s="2" t="s">
         <v>141</v>
       </c>
+      <c r="E63" s="2">
+        <v>63</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
@@ -1835,6 +2016,9 @@
       <c r="C64" s="2" t="s">
         <v>141</v>
       </c>
+      <c r="E64" s="2">
+        <v>64</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
@@ -1846,6 +2030,9 @@
       <c r="C65" s="2" t="s">
         <v>145</v>
       </c>
+      <c r="E65" s="2">
+        <v>65</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
@@ -1857,6 +2044,9 @@
       <c r="C66" s="2" t="s">
         <v>147</v>
       </c>
+      <c r="E66" s="2">
+        <v>66</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
@@ -1868,6 +2058,9 @@
       <c r="C67" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="E67" s="2">
+        <v>67</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
@@ -1879,6 +2072,9 @@
       <c r="C68" s="2" t="s">
         <v>150</v>
       </c>
+      <c r="E68" s="2">
+        <v>68</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
@@ -1890,6 +2086,9 @@
       <c r="C69" s="2" t="s">
         <v>152</v>
       </c>
+      <c r="E69" s="2">
+        <v>69</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
@@ -1901,6 +2100,9 @@
       <c r="C70" s="2" t="s">
         <v>154</v>
       </c>
+      <c r="E70" s="2">
+        <v>70</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
@@ -1912,6 +2114,9 @@
       <c r="C71" s="2" t="s">
         <v>156</v>
       </c>
+      <c r="E71" s="2">
+        <v>71</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
@@ -1923,6 +2128,9 @@
       <c r="C72" s="2" t="s">
         <v>158</v>
       </c>
+      <c r="E72" s="2">
+        <v>72</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
@@ -1934,6 +2142,9 @@
       <c r="C73" s="2" t="s">
         <v>160</v>
       </c>
+      <c r="E73" s="2">
+        <v>73</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
@@ -1945,6 +2156,9 @@
       <c r="C74" s="2" t="s">
         <v>162</v>
       </c>
+      <c r="E74" s="2">
+        <v>74</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
@@ -1956,6 +2170,9 @@
       <c r="C75" s="2" t="s">
         <v>164</v>
       </c>
+      <c r="E75" s="2">
+        <v>75</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
@@ -1967,6 +2184,9 @@
       <c r="C76" s="2" t="s">
         <v>166</v>
       </c>
+      <c r="E76" s="2">
+        <v>76</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
@@ -1978,6 +2198,9 @@
       <c r="C77" s="2" t="s">
         <v>168</v>
       </c>
+      <c r="E77" s="2">
+        <v>77</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
@@ -1989,6 +2212,9 @@
       <c r="C78" s="2" t="s">
         <v>171</v>
       </c>
+      <c r="E78" s="2">
+        <v>78</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
@@ -2000,6 +2226,9 @@
       <c r="C79" s="2" t="s">
         <v>174</v>
       </c>
+      <c r="E79" s="2">
+        <v>79</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
@@ -2011,6 +2240,9 @@
       <c r="C80" s="2" t="s">
         <v>177</v>
       </c>
+      <c r="E80" s="2">
+        <v>80</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
@@ -2022,6 +2254,9 @@
       <c r="C81" s="2" t="s">
         <v>180</v>
       </c>
+      <c r="E81" s="2">
+        <v>81</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
@@ -2033,6 +2268,9 @@
       <c r="C82" s="2" t="s">
         <v>182</v>
       </c>
+      <c r="E82" s="2">
+        <v>82</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
@@ -2044,6 +2282,9 @@
       <c r="C83" s="2" t="s">
         <v>184</v>
       </c>
+      <c r="E83" s="2">
+        <v>83</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
@@ -2055,6 +2296,9 @@
       <c r="C84" s="2" t="s">
         <v>186</v>
       </c>
+      <c r="E84" s="2">
+        <v>84</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
@@ -2066,6 +2310,9 @@
       <c r="C85" s="2" t="s">
         <v>188</v>
       </c>
+      <c r="E85" s="2">
+        <v>85</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
@@ -2077,6 +2324,9 @@
       <c r="C86" s="2" t="s">
         <v>190</v>
       </c>
+      <c r="E86" s="2">
+        <v>86</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
@@ -2088,6 +2338,9 @@
       <c r="C87" s="2" t="s">
         <v>192</v>
       </c>
+      <c r="E87" s="2">
+        <v>87</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
@@ -2099,6 +2352,9 @@
       <c r="C88" s="2" t="s">
         <v>194</v>
       </c>
+      <c r="E88" s="2">
+        <v>88</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
@@ -2110,6 +2366,9 @@
       <c r="C89" s="2" t="s">
         <v>196</v>
       </c>
+      <c r="E89" s="2">
+        <v>89</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
@@ -2121,6 +2380,9 @@
       <c r="C90" s="2" t="s">
         <v>198</v>
       </c>
+      <c r="E90" s="2">
+        <v>90</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
@@ -2132,6 +2394,9 @@
       <c r="C91" s="2" t="s">
         <v>201</v>
       </c>
+      <c r="E91" s="2">
+        <v>91</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
@@ -2143,6 +2408,9 @@
       <c r="C92" s="2" t="s">
         <v>203</v>
       </c>
+      <c r="E92" s="2">
+        <v>92</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
@@ -2154,6 +2422,9 @@
       <c r="C93" s="2" t="s">
         <v>205</v>
       </c>
+      <c r="E93" s="2">
+        <v>93</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
@@ -2165,6 +2436,9 @@
       <c r="C94" s="2" t="s">
         <v>207</v>
       </c>
+      <c r="E94" s="2">
+        <v>94</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
@@ -2176,6 +2450,9 @@
       <c r="C95" s="2" t="s">
         <v>209</v>
       </c>
+      <c r="E95" s="2">
+        <v>95</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
@@ -2187,6 +2464,9 @@
       <c r="C96" s="2" t="s">
         <v>211</v>
       </c>
+      <c r="E96" s="2">
+        <v>96</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
@@ -2198,6 +2478,9 @@
       <c r="C97" s="2" t="s">
         <v>213</v>
       </c>
+      <c r="E97" s="2">
+        <v>97</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
@@ -2209,6 +2492,9 @@
       <c r="C98" s="2" t="s">
         <v>215</v>
       </c>
+      <c r="E98" s="2">
+        <v>98</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
@@ -2220,6 +2506,9 @@
       <c r="C99" s="2" t="s">
         <v>217</v>
       </c>
+      <c r="E99" s="2">
+        <v>99</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
@@ -2231,6 +2520,9 @@
       <c r="C100" s="2" t="s">
         <v>219</v>
       </c>
+      <c r="E100" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
@@ -2242,6 +2534,9 @@
       <c r="C101" s="2" t="s">
         <v>221</v>
       </c>
+      <c r="E101" s="2">
+        <v>101</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
@@ -2253,6 +2548,9 @@
       <c r="C102" s="2" t="s">
         <v>224</v>
       </c>
+      <c r="E102" s="2">
+        <v>102</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
@@ -2264,6 +2562,9 @@
       <c r="C103" s="2" t="s">
         <v>226</v>
       </c>
+      <c r="E103" s="2">
+        <v>103</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
@@ -2275,6 +2576,9 @@
       <c r="C104" s="2" t="s">
         <v>228</v>
       </c>
+      <c r="E104" s="2">
+        <v>104</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
@@ -2286,6 +2590,9 @@
       <c r="C105" s="2" t="s">
         <v>230</v>
       </c>
+      <c r="E105" s="2">
+        <v>105</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
@@ -2297,6 +2604,9 @@
       <c r="C106" s="2" t="s">
         <v>233</v>
       </c>
+      <c r="E106" s="2">
+        <v>106</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
@@ -2308,6 +2618,9 @@
       <c r="C107" s="2" t="s">
         <v>236</v>
       </c>
+      <c r="E107" s="2">
+        <v>107</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
@@ -2319,6 +2632,9 @@
       <c r="C108" s="2" t="s">
         <v>238</v>
       </c>
+      <c r="E108" s="2">
+        <v>108</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
@@ -2330,6 +2646,9 @@
       <c r="C109" s="2" t="s">
         <v>241</v>
       </c>
+      <c r="E109" s="2">
+        <v>109</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
@@ -2341,16 +2660,22 @@
       <c r="C110" s="2" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="s">
+      <c r="E110" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" s="3" customFormat="1">
+      <c r="A111" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="3" t="s">
         <v>247</v>
+      </c>
+      <c r="E111" s="3">
+        <v>111</v>
       </c>
     </row>
     <row r="112">
@@ -2363,6 +2688,9 @@
       <c r="C112" s="2" t="s">
         <v>250</v>
       </c>
+      <c r="E112" s="2">
+        <v>112</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
@@ -2374,6 +2702,9 @@
       <c r="C113" s="2" t="s">
         <v>252</v>
       </c>
+      <c r="E113" s="2">
+        <v>113</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
@@ -2384,6 +2715,9 @@
       </c>
       <c r="C114" s="2" t="s">
         <v>254</v>
+      </c>
+      <c r="E114" s="2">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/CustomLocalization/Localization/RogueTech/RU/Base FlashPoint/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/Base FlashPoint/LocalizationDef.xlsx
@@ -1114,14 +1114,14 @@
   <dimension ref="A1:E114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="73" customWidth="1" style="2"/>
-    <col min="4" max="4" width="9.140625" customWidth="1" style="2"/>
-    <col min="5" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="4" max="5" width="9.140625" customWidth="1" style="2"/>
+    <col min="6" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/CustomLocalization/Localization/RogueTech/RU/Base FlashPoint/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/Base FlashPoint/LocalizationDef.xlsx
@@ -812,7 +812,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -1114,14 +1115,14 @@
   <dimension ref="A1:E114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C1" sqref="C1:C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="73" customWidth="1" style="2"/>
-    <col min="4" max="5" width="9.140625" customWidth="1" style="2"/>
-    <col min="6" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="4" max="6" width="9.140625" customWidth="1" style="2"/>
+    <col min="7" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1131,7 +1132,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="2">
@@ -1145,7 +1146,7 @@
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="2">
@@ -1159,7 +1160,7 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="2">
@@ -1173,7 +1174,7 @@
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="2">
@@ -1187,7 +1188,7 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="2">
@@ -1201,7 +1202,7 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="2">
@@ -1215,7 +1216,7 @@
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="2">
@@ -1229,7 +1230,7 @@
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="2">
@@ -1243,7 +1244,7 @@
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="2">
@@ -1257,7 +1258,7 @@
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="2">
@@ -1271,7 +1272,7 @@
       <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="2">
@@ -1285,7 +1286,7 @@
       <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="2">
@@ -1299,7 +1300,7 @@
       <c r="B13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="2">
@@ -1313,7 +1314,7 @@
       <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E14" s="2">
@@ -1327,7 +1328,7 @@
       <c r="B15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="2">
@@ -1341,7 +1342,7 @@
       <c r="B16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E16" s="2">
@@ -1355,7 +1356,7 @@
       <c r="B17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E17" s="2">
@@ -1369,7 +1370,7 @@
       <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="2">
@@ -1383,7 +1384,7 @@
       <c r="B19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="2">
@@ -1397,7 +1398,7 @@
       <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E20" s="2">
@@ -1411,7 +1412,7 @@
       <c r="B21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E21" s="2">
@@ -1425,7 +1426,7 @@
       <c r="B22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E22" s="2">
@@ -1439,7 +1440,7 @@
       <c r="B23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E23" s="2">
@@ -1453,7 +1454,7 @@
       <c r="B24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E24" s="2">
@@ -1467,7 +1468,7 @@
       <c r="B25" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E25" s="2">
@@ -1481,7 +1482,7 @@
       <c r="B26" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="4" t="s">
         <v>56</v>
       </c>
       <c r="E26" s="2">
@@ -1495,7 +1496,7 @@
       <c r="B27" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E27" s="2">
@@ -1509,7 +1510,7 @@
       <c r="B28" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E28" s="2">
@@ -1523,7 +1524,7 @@
       <c r="B29" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="4" t="s">
         <v>63</v>
       </c>
       <c r="E29" s="2">
@@ -1537,7 +1538,7 @@
       <c r="B30" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E30" s="2">
@@ -1551,7 +1552,7 @@
       <c r="B31" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="4" t="s">
         <v>68</v>
       </c>
       <c r="E31" s="2">
@@ -1565,7 +1566,7 @@
       <c r="B32" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E32" s="2">
@@ -1579,7 +1580,7 @@
       <c r="B33" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="4" t="s">
         <v>73</v>
       </c>
       <c r="E33" s="2">
@@ -1593,7 +1594,7 @@
       <c r="B34" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="4" t="s">
         <v>76</v>
       </c>
       <c r="E34" s="2">
@@ -1607,7 +1608,7 @@
       <c r="B35" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="4" t="s">
         <v>78</v>
       </c>
       <c r="E35" s="2">
@@ -1621,7 +1622,7 @@
       <c r="B36" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="4" t="s">
         <v>80</v>
       </c>
       <c r="E36" s="2">
@@ -1635,7 +1636,7 @@
       <c r="B37" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="4" t="s">
         <v>82</v>
       </c>
       <c r="E37" s="2">
@@ -1649,7 +1650,7 @@
       <c r="B38" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="4" t="s">
         <v>84</v>
       </c>
       <c r="E38" s="2">
@@ -1663,7 +1664,7 @@
       <c r="B39" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="4" t="s">
         <v>86</v>
       </c>
       <c r="E39" s="2">
@@ -1677,7 +1678,7 @@
       <c r="B40" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E40" s="2">
@@ -1691,7 +1692,7 @@
       <c r="B41" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E41" s="2">
@@ -1705,7 +1706,7 @@
       <c r="B42" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="4" t="s">
         <v>94</v>
       </c>
       <c r="E42" s="2">
@@ -1719,7 +1720,7 @@
       <c r="B43" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="4" t="s">
         <v>96</v>
       </c>
       <c r="E43" s="2">
@@ -1733,7 +1734,7 @@
       <c r="B44" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="4" t="s">
         <v>98</v>
       </c>
       <c r="E44" s="2">
@@ -1747,7 +1748,7 @@
       <c r="B45" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="4" t="s">
         <v>100</v>
       </c>
       <c r="E45" s="2">
@@ -1761,7 +1762,7 @@
       <c r="B46" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E46" s="2">
@@ -1775,7 +1776,7 @@
       <c r="B47" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="4" t="s">
         <v>105</v>
       </c>
       <c r="E47" s="2">
@@ -1789,7 +1790,7 @@
       <c r="B48" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="4" t="s">
         <v>107</v>
       </c>
       <c r="E48" s="2">
@@ -1803,7 +1804,7 @@
       <c r="B49" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="4" t="s">
         <v>109</v>
       </c>
       <c r="E49" s="2">
@@ -1817,7 +1818,7 @@
       <c r="B50" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="4" t="s">
         <v>111</v>
       </c>
       <c r="E50" s="2">
@@ -1831,7 +1832,7 @@
       <c r="B51" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="4" t="s">
         <v>114</v>
       </c>
       <c r="E51" s="2">
@@ -1845,7 +1846,7 @@
       <c r="B52" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="4" t="s">
         <v>117</v>
       </c>
       <c r="E52" s="2">
@@ -1859,7 +1860,7 @@
       <c r="B53" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="4" t="s">
         <v>120</v>
       </c>
       <c r="E53" s="2">
@@ -1873,7 +1874,7 @@
       <c r="B54" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="4" t="s">
         <v>123</v>
       </c>
       <c r="E54" s="2">
@@ -1887,7 +1888,7 @@
       <c r="B55" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="4" t="s">
         <v>125</v>
       </c>
       <c r="E55" s="2">
@@ -1901,7 +1902,7 @@
       <c r="B56" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="4" t="s">
         <v>128</v>
       </c>
       <c r="E56" s="2">
@@ -1915,7 +1916,7 @@
       <c r="B57" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="4" t="s">
         <v>130</v>
       </c>
       <c r="E57" s="2">
@@ -1929,7 +1930,7 @@
       <c r="B58" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="4" t="s">
         <v>132</v>
       </c>
       <c r="E58" s="2">
@@ -1943,7 +1944,7 @@
       <c r="B59" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="4" t="s">
         <v>134</v>
       </c>
       <c r="E59" s="2">
@@ -1957,7 +1958,7 @@
       <c r="B60" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="4" t="s">
         <v>136</v>
       </c>
       <c r="E60" s="2">
@@ -1971,7 +1972,7 @@
       <c r="B61" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="4" t="s">
         <v>138</v>
       </c>
       <c r="E61" s="2">
@@ -1985,7 +1986,7 @@
       <c r="B62" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="4" t="s">
         <v>138</v>
       </c>
       <c r="E62" s="2">
@@ -1999,7 +2000,7 @@
       <c r="B63" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E63" s="2">
@@ -2013,7 +2014,7 @@
       <c r="B64" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E64" s="2">
@@ -2027,7 +2028,7 @@
       <c r="B65" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="4" t="s">
         <v>145</v>
       </c>
       <c r="E65" s="2">
@@ -2041,7 +2042,7 @@
       <c r="B66" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="4" t="s">
         <v>147</v>
       </c>
       <c r="E66" s="2">
@@ -2055,7 +2056,7 @@
       <c r="B67" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="4" t="s">
         <v>73</v>
       </c>
       <c r="E67" s="2">
@@ -2069,7 +2070,7 @@
       <c r="B68" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="4" t="s">
         <v>150</v>
       </c>
       <c r="E68" s="2">
@@ -2083,7 +2084,7 @@
       <c r="B69" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="4" t="s">
         <v>152</v>
       </c>
       <c r="E69" s="2">
@@ -2097,7 +2098,7 @@
       <c r="B70" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="4" t="s">
         <v>154</v>
       </c>
       <c r="E70" s="2">
@@ -2111,7 +2112,7 @@
       <c r="B71" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="4" t="s">
         <v>156</v>
       </c>
       <c r="E71" s="2">
@@ -2125,7 +2126,7 @@
       <c r="B72" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="4" t="s">
         <v>158</v>
       </c>
       <c r="E72" s="2">
@@ -2139,7 +2140,7 @@
       <c r="B73" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="4" t="s">
         <v>160</v>
       </c>
       <c r="E73" s="2">
@@ -2153,7 +2154,7 @@
       <c r="B74" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="4" t="s">
         <v>162</v>
       </c>
       <c r="E74" s="2">
@@ -2167,7 +2168,7 @@
       <c r="B75" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="4" t="s">
         <v>164</v>
       </c>
       <c r="E75" s="2">
@@ -2181,7 +2182,7 @@
       <c r="B76" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="4" t="s">
         <v>166</v>
       </c>
       <c r="E76" s="2">
@@ -2195,7 +2196,7 @@
       <c r="B77" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="4" t="s">
         <v>168</v>
       </c>
       <c r="E77" s="2">
@@ -2209,7 +2210,7 @@
       <c r="B78" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="4" t="s">
         <v>171</v>
       </c>
       <c r="E78" s="2">
@@ -2223,7 +2224,7 @@
       <c r="B79" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="4" t="s">
         <v>174</v>
       </c>
       <c r="E79" s="2">
@@ -2237,7 +2238,7 @@
       <c r="B80" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="4" t="s">
         <v>177</v>
       </c>
       <c r="E80" s="2">
@@ -2251,7 +2252,7 @@
       <c r="B81" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="4" t="s">
         <v>180</v>
       </c>
       <c r="E81" s="2">
@@ -2265,7 +2266,7 @@
       <c r="B82" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="4" t="s">
         <v>182</v>
       </c>
       <c r="E82" s="2">
@@ -2279,7 +2280,7 @@
       <c r="B83" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="4" t="s">
         <v>184</v>
       </c>
       <c r="E83" s="2">
@@ -2293,7 +2294,7 @@
       <c r="B84" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="4" t="s">
         <v>186</v>
       </c>
       <c r="E84" s="2">
@@ -2307,7 +2308,7 @@
       <c r="B85" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="4" t="s">
         <v>188</v>
       </c>
       <c r="E85" s="2">
@@ -2321,7 +2322,7 @@
       <c r="B86" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="4" t="s">
         <v>190</v>
       </c>
       <c r="E86" s="2">
@@ -2335,7 +2336,7 @@
       <c r="B87" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="4" t="s">
         <v>192</v>
       </c>
       <c r="E87" s="2">
@@ -2349,7 +2350,7 @@
       <c r="B88" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="4" t="s">
         <v>194</v>
       </c>
       <c r="E88" s="2">
@@ -2363,7 +2364,7 @@
       <c r="B89" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="4" t="s">
         <v>196</v>
       </c>
       <c r="E89" s="2">
@@ -2377,7 +2378,7 @@
       <c r="B90" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="4" t="s">
         <v>198</v>
       </c>
       <c r="E90" s="2">
@@ -2391,7 +2392,7 @@
       <c r="B91" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="4" t="s">
         <v>201</v>
       </c>
       <c r="E91" s="2">
@@ -2405,7 +2406,7 @@
       <c r="B92" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E92" s="2">
@@ -2419,7 +2420,7 @@
       <c r="B93" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="4" t="s">
         <v>205</v>
       </c>
       <c r="E93" s="2">
@@ -2433,7 +2434,7 @@
       <c r="B94" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="4" t="s">
         <v>207</v>
       </c>
       <c r="E94" s="2">
@@ -2447,7 +2448,7 @@
       <c r="B95" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="4" t="s">
         <v>209</v>
       </c>
       <c r="E95" s="2">
@@ -2461,7 +2462,7 @@
       <c r="B96" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="4" t="s">
         <v>211</v>
       </c>
       <c r="E96" s="2">
@@ -2475,7 +2476,7 @@
       <c r="B97" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="4" t="s">
         <v>213</v>
       </c>
       <c r="E97" s="2">
@@ -2489,7 +2490,7 @@
       <c r="B98" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="4" t="s">
         <v>215</v>
       </c>
       <c r="E98" s="2">
@@ -2503,7 +2504,7 @@
       <c r="B99" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="4" t="s">
         <v>217</v>
       </c>
       <c r="E99" s="2">
@@ -2517,7 +2518,7 @@
       <c r="B100" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E100" s="2">
@@ -2531,7 +2532,7 @@
       <c r="B101" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="4" t="s">
         <v>221</v>
       </c>
       <c r="E101" s="2">
@@ -2545,7 +2546,7 @@
       <c r="B102" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="4" t="s">
         <v>224</v>
       </c>
       <c r="E102" s="2">
@@ -2559,7 +2560,7 @@
       <c r="B103" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="4" t="s">
         <v>226</v>
       </c>
       <c r="E103" s="2">
@@ -2573,7 +2574,7 @@
       <c r="B104" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="4" t="s">
         <v>228</v>
       </c>
       <c r="E104" s="2">
@@ -2587,7 +2588,7 @@
       <c r="B105" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="4" t="s">
         <v>230</v>
       </c>
       <c r="E105" s="2">
@@ -2601,7 +2602,7 @@
       <c r="B106" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="4" t="s">
         <v>233</v>
       </c>
       <c r="E106" s="2">
@@ -2615,7 +2616,7 @@
       <c r="B107" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="4" t="s">
         <v>236</v>
       </c>
       <c r="E107" s="2">
@@ -2629,7 +2630,7 @@
       <c r="B108" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="4" t="s">
         <v>238</v>
       </c>
       <c r="E108" s="2">
@@ -2643,7 +2644,7 @@
       <c r="B109" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="4" t="s">
         <v>241</v>
       </c>
       <c r="E109" s="2">
@@ -2657,7 +2658,7 @@
       <c r="B110" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="4" t="s">
         <v>244</v>
       </c>
       <c r="E110" s="2">
@@ -2671,7 +2672,7 @@
       <c r="B111" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="4" t="s">
         <v>247</v>
       </c>
       <c r="E111" s="3">
@@ -2685,7 +2686,7 @@
       <c r="B112" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="4" t="s">
         <v>250</v>
       </c>
       <c r="E112" s="2">
@@ -2699,7 +2700,7 @@
       <c r="B113" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="4" t="s">
         <v>252</v>
       </c>
       <c r="E113" s="2">
@@ -2713,7 +2714,7 @@
       <c r="B114" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="4" t="s">
         <v>254</v>
       </c>
       <c r="E114" s="2">

--- a/CustomLocalization/Localization/RogueTech/RU/Base FlashPoint/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/Base FlashPoint/LocalizationDef.xlsx
@@ -1115,14 +1115,14 @@
   <dimension ref="A1:E114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C114"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="73" customWidth="1" style="2"/>
-    <col min="4" max="6" width="9.140625" customWidth="1" style="2"/>
-    <col min="7" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="4" max="7" width="9.140625" customWidth="1" style="2"/>
+    <col min="8" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
